--- a/Code/Results/Cases/Case_3_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.618839255423552</v>
+        <v>0.1932629775376711</v>
       </c>
       <c r="C2">
-        <v>0.08368008854314013</v>
+        <v>0.07381479721892248</v>
       </c>
       <c r="D2">
-        <v>0.07295270224693695</v>
+        <v>0.02746420182479881</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3683180700609512</v>
+        <v>0.5352490448350977</v>
       </c>
       <c r="G2">
-        <v>0.2628491189173943</v>
+        <v>0.3762415226960698</v>
       </c>
       <c r="H2">
-        <v>0.2395916098710771</v>
+        <v>0.5434424720458182</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6055942029702237</v>
+        <v>0.1908499007080593</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.763211826575201</v>
+        <v>0.8869244610980616</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.008089212714737</v>
+        <v>1.780762920721443</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5438249185282586</v>
+        <v>0.1688055617385089</v>
       </c>
       <c r="C3">
-        <v>0.0828388950673471</v>
+        <v>0.07314745209910711</v>
       </c>
       <c r="D3">
-        <v>0.06493289923871259</v>
+        <v>0.02470966275431152</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3494986210528594</v>
+        <v>0.5345269578717549</v>
       </c>
       <c r="G3">
-        <v>0.2528695683180757</v>
+        <v>0.3769269306848031</v>
       </c>
       <c r="H3">
-        <v>0.240676473093643</v>
+        <v>0.5471045313039937</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5408456372907438</v>
+        <v>0.1684584451220701</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.353288141568271</v>
+        <v>0.7896836777914586</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9888518504112511</v>
+        <v>1.789648995828045</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4975790376341251</v>
+        <v>0.1537374814116248</v>
       </c>
       <c r="C4">
-        <v>0.08232453588181698</v>
+        <v>0.07274514631495776</v>
       </c>
       <c r="D4">
-        <v>0.05998165434687763</v>
+        <v>0.0230057236765191</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.338737278755481</v>
+        <v>0.5344280057941688</v>
       </c>
       <c r="G4">
-        <v>0.2474650023838123</v>
+        <v>0.3776248289870949</v>
       </c>
       <c r="H4">
-        <v>0.2417798053112605</v>
+        <v>0.5495901237623286</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5008291617856031</v>
+        <v>0.1546261826340327</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.110161054869863</v>
+        <v>0.7305018596744048</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9794803881283229</v>
+        <v>1.796180741809621</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4786865507086588</v>
+        <v>0.1475848219285183</v>
       </c>
       <c r="C5">
-        <v>0.08211640894599981</v>
+        <v>0.07258313150816775</v>
       </c>
       <c r="D5">
-        <v>0.05795725745973357</v>
+        <v>0.02230822767126028</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3345396060951273</v>
+        <v>0.5344742284773076</v>
       </c>
       <c r="G5">
-        <v>0.245432959414174</v>
+        <v>0.3779787536163468</v>
       </c>
       <c r="H5">
-        <v>0.2423349428443373</v>
+        <v>0.5506626492129953</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4844591369500932</v>
+        <v>0.1489689088776345</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.012874294917694</v>
+        <v>0.7065106605033549</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.976241566799672</v>
+        <v>1.799112682926491</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4755466313060026</v>
+        <v>0.1465624515200972</v>
       </c>
       <c r="C6">
-        <v>0.08208196414195612</v>
+        <v>0.07255634716018022</v>
       </c>
       <c r="D6">
-        <v>0.05762070344351145</v>
+        <v>0.0221922216483037</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3338535860201262</v>
+        <v>0.5344871292000022</v>
       </c>
       <c r="G6">
-        <v>0.2451055114655318</v>
+        <v>0.3780417175342166</v>
       </c>
       <c r="H6">
-        <v>0.2424333722563148</v>
+        <v>0.5508443429015699</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4817371683968759</v>
+        <v>0.1480283004237464</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.996818273093695</v>
+        <v>0.7025343692743178</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9757378658149634</v>
+        <v>1.799615840806155</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4973244370123524</v>
+        <v>0.1536545535272893</v>
       </c>
       <c r="C7">
-        <v>0.08232172186738751</v>
+        <v>0.07274295344776505</v>
       </c>
       <c r="D7">
-        <v>0.05995437977036033</v>
+        <v>0.02299632959454811</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.338679922841969</v>
+        <v>0.5344282788265602</v>
       </c>
       <c r="G7">
-        <v>0.2474369222402402</v>
+        <v>0.3776293208234378</v>
       </c>
       <c r="H7">
-        <v>0.2417868704772346</v>
+        <v>0.5496043467769383</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5006086419118105</v>
+        <v>0.1545499689795378</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.108842211263465</v>
+        <v>0.7301778041441338</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9794344019150003</v>
+        <v>1.796219189340974</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5930131718920109</v>
+        <v>0.1848410016210096</v>
       </c>
       <c r="C8">
-        <v>0.08339020917217965</v>
+        <v>0.07358318396342867</v>
       </c>
       <c r="D8">
-        <v>0.07019314572210078</v>
+        <v>0.02651709060397422</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3616568765636572</v>
+        <v>0.5349285492121538</v>
       </c>
       <c r="G8">
-        <v>0.2592509779953005</v>
+        <v>0.3764202619071995</v>
       </c>
       <c r="H8">
-        <v>0.2398721718350245</v>
+        <v>0.5446559526779993</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5833246551054856</v>
+        <v>0.183147053465845</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.619855055270392</v>
+        <v>0.8532833283828438</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.000928720459214</v>
+        <v>1.783603413812429</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7791638263223604</v>
+        <v>0.2455700092432949</v>
       </c>
       <c r="C9">
-        <v>0.08545196878402805</v>
+        <v>0.07528762589881666</v>
       </c>
       <c r="D9">
-        <v>0.09005157407251829</v>
+        <v>0.03331901840297746</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4136044807547421</v>
+        <v>0.5386458815275077</v>
       </c>
       <c r="G9">
-        <v>0.2887200432213106</v>
+        <v>0.3762545264498272</v>
       </c>
       <c r="H9">
-        <v>0.2398023497189996</v>
+        <v>0.5368328395680422</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7433226594808389</v>
+        <v>0.2385386174086079</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.709793001639554</v>
+        <v>1.099139928700623</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.06409564611036</v>
+        <v>1.767412900596142</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.914964290093792</v>
+        <v>0.2899018116995364</v>
       </c>
       <c r="C10">
-        <v>0.08685850181998944</v>
+        <v>0.07657148864463892</v>
       </c>
       <c r="D10">
-        <v>0.1044959275534723</v>
+        <v>0.03825182879519673</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4568870793194435</v>
+        <v>0.5430513374943615</v>
       </c>
       <c r="G10">
-        <v>0.3150943645613324</v>
+        <v>0.3774874250627533</v>
       </c>
       <c r="H10">
-        <v>0.2423266951265504</v>
+        <v>0.5322313919583905</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8592669982316323</v>
+        <v>0.2787897515464692</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.598957413974759</v>
+        <v>1.282900772118865</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.125879459245652</v>
+        <v>1.760750976294503</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9765006776199812</v>
+        <v>0.3100023649983257</v>
       </c>
       <c r="C11">
-        <v>0.08744797515416991</v>
+        <v>0.07716179413920088</v>
       </c>
       <c r="D11">
-        <v>0.11103028097817</v>
+        <v>0.0404814259019588</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4779250164842068</v>
+        <v>0.545420482901001</v>
       </c>
       <c r="G11">
-        <v>0.3283481152768246</v>
+        <v>0.3783447262719193</v>
       </c>
       <c r="H11">
-        <v>0.2441173701120078</v>
+        <v>0.5303869223181295</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9115739743376707</v>
+        <v>0.2969991016747429</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.03333055606636</v>
+        <v>1.367271955679385</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.157987176385774</v>
+        <v>1.75886146233529</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9997627589750948</v>
+        <v>0.3176038839142734</v>
       </c>
       <c r="C12">
-        <v>0.08766087090717889</v>
+        <v>0.07738617504170975</v>
       </c>
       <c r="D12">
-        <v>0.1134986709790979</v>
+        <v>0.04132360312215155</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4861085785581949</v>
+        <v>0.5463702063068325</v>
       </c>
       <c r="G12">
-        <v>0.3335702908912452</v>
+        <v>0.3787121652640764</v>
       </c>
       <c r="H12">
-        <v>0.244895758194474</v>
+        <v>0.5297242373030286</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9313069083597441</v>
+        <v>0.3038794476042312</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.203330499922487</v>
+        <v>1.399340452926154</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.170785938958431</v>
+        <v>1.758310397072904</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9947547761993292</v>
+        <v>0.3159672206930111</v>
       </c>
       <c r="C13">
-        <v>0.08761553820534118</v>
+        <v>0.07733781391306138</v>
       </c>
       <c r="D13">
-        <v>0.1129673432016745</v>
+        <v>0.04114232051702515</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4843360462647652</v>
+        <v>0.5461633265973447</v>
       </c>
       <c r="G13">
-        <v>0.332436159441869</v>
+        <v>0.3786311245759606</v>
       </c>
       <c r="H13">
-        <v>0.2447235199705915</v>
+        <v>0.5298653671562903</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9270606179873369</v>
+        <v>0.3023983249259743</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.166449575432637</v>
+        <v>1.392428521435377</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.167999877224958</v>
+        <v>1.758421758776905</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.978415317060211</v>
+        <v>0.3106279528964535</v>
       </c>
       <c r="C14">
-        <v>0.08746571805579606</v>
+        <v>0.0771802374779611</v>
       </c>
       <c r="D14">
-        <v>0.1112334833883324</v>
+        <v>0.04055075520223284</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4785937898952284</v>
+        <v>0.54549756298087</v>
       </c>
       <c r="G14">
-        <v>0.328773529618644</v>
+        <v>0.3783740970033449</v>
       </c>
       <c r="H14">
-        <v>0.2441793492658064</v>
+        <v>0.5303316857942946</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9131989918079739</v>
+        <v>0.2975654587448844</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.04719784413534</v>
+        <v>1.369907824402958</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.159026898512167</v>
+        <v>1.75881282783817</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9684014400650085</v>
+        <v>0.3073561608088085</v>
       </c>
       <c r="C15">
-        <v>0.08737249743565911</v>
+        <v>0.07708382573541428</v>
       </c>
       <c r="D15">
-        <v>0.1101706303484633</v>
+        <v>0.0401881262074113</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4751054916967803</v>
+        <v>0.5450966133524346</v>
       </c>
       <c r="G15">
-        <v>0.3265572714923195</v>
+        <v>0.3782222387200989</v>
       </c>
       <c r="H15">
-        <v>0.2438593439565153</v>
+        <v>0.530621978632567</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9046982128641332</v>
+        <v>0.2946031991588143</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.974912651028248</v>
+        <v>1.356128955179869</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.153616168573762</v>
+        <v>1.759073796659607</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9109374698203681</v>
+        <v>0.2885868093643467</v>
       </c>
       <c r="C16">
-        <v>0.08681872084274289</v>
+        <v>0.07653303211515805</v>
       </c>
       <c r="D16">
-        <v>0.1040680984464188</v>
+        <v>0.0381058254511828</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.455541225287682</v>
+        <v>0.5429038615780115</v>
       </c>
       <c r="G16">
-        <v>0.3142553285862846</v>
+        <v>0.3774373781301961</v>
       </c>
       <c r="H16">
-        <v>0.2422232507840505</v>
+        <v>0.532356938361346</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8558389080496625</v>
+        <v>0.2775976418800212</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.571267682363796</v>
+        <v>1.277403169529492</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.123866988892019</v>
+        <v>1.76089745282377</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8756203319834981</v>
+        <v>0.2770550329609307</v>
       </c>
       <c r="C17">
-        <v>0.08646416289877124</v>
+        <v>0.07619670357248509</v>
       </c>
       <c r="D17">
-        <v>0.1003145894244781</v>
+        <v>0.03682468181209941</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4438998798745359</v>
+        <v>0.5416522432027762</v>
       </c>
       <c r="G17">
-        <v>0.3070451816854387</v>
+        <v>0.377031939158698</v>
       </c>
       <c r="H17">
-        <v>0.241389411714934</v>
+        <v>0.5334849949709195</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8257462511542855</v>
+        <v>0.2671389615720585</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.332061742588778</v>
+        <v>1.229311615470891</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.106684921358919</v>
+        <v>1.76230871716578</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8552847471224538</v>
+        <v>0.2704160645556897</v>
       </c>
       <c r="C18">
-        <v>0.08625571643055707</v>
+        <v>0.07600384980369768</v>
       </c>
       <c r="D18">
-        <v>0.09815230080739923</v>
+        <v>0.03608645339040351</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4373294486692885</v>
+        <v>0.5409667037533197</v>
       </c>
       <c r="G18">
-        <v>0.303014767114469</v>
+        <v>0.376826634512021</v>
       </c>
       <c r="H18">
-        <v>0.2409697409172651</v>
+        <v>0.5341572366638871</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8083975427651211</v>
+        <v>0.2611139258652031</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.197200764007334</v>
+        <v>1.201723363944211</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.097174544025791</v>
+        <v>1.763227815665545</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8483958097608593</v>
+        <v>0.2681671782552826</v>
       </c>
       <c r="C19">
-        <v>0.08618444513795964</v>
+        <v>0.07593865649545251</v>
       </c>
       <c r="D19">
-        <v>0.09741962741699695</v>
+        <v>0.03583627207681417</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.435125698425594</v>
+        <v>0.5407404904771127</v>
       </c>
       <c r="G19">
-        <v>0.3016695433983685</v>
+        <v>0.3767619074267898</v>
       </c>
       <c r="H19">
-        <v>0.2408377153386638</v>
+        <v>0.5343888672596719</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.802516960177087</v>
+        <v>0.2590723425977899</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.1519753068943</v>
+        <v>1.192394733557251</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.094016617709741</v>
+        <v>1.763557437277044</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8793822233313904</v>
+        <v>0.278283255848379</v>
       </c>
       <c r="C20">
-        <v>0.08650239299477391</v>
+        <v>0.07623244530491746</v>
       </c>
       <c r="D20">
-        <v>0.1007145103111782</v>
+        <v>0.03696120171883166</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4451259906393545</v>
+        <v>0.5417819235716479</v>
       </c>
       <c r="G20">
-        <v>0.3078004864522228</v>
+        <v>0.3770722107779676</v>
       </c>
       <c r="H20">
-        <v>0.2414719184002934</v>
+        <v>0.533362488187386</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8289539002229702</v>
+        <v>0.2682532914001854</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.35723597883856</v>
+        <v>1.234423464027714</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.108475012771379</v>
+        <v>1.762147369899708</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9832157704300357</v>
+        <v>0.312196504852551</v>
       </c>
       <c r="C21">
-        <v>0.0875100331886145</v>
+        <v>0.07722649901248246</v>
       </c>
       <c r="D21">
-        <v>0.1117429315344793</v>
+        <v>0.04072457034529009</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4802743398104781</v>
+        <v>0.5456916862537824</v>
       </c>
       <c r="G21">
-        <v>0.3298436165908925</v>
+        <v>0.3784484293704793</v>
       </c>
       <c r="H21">
-        <v>0.2443363948951998</v>
+        <v>0.5301937457212489</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9172726262248148</v>
+        <v>0.2989854043761397</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.082063904391703</v>
+        <v>1.376519412466862</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.161644535605745</v>
+        <v>1.758693495184133</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05083637140001</v>
+        <v>0.3343014816575476</v>
       </c>
       <c r="C22">
-        <v>0.08810623876096457</v>
+        <v>0.07788106998851418</v>
       </c>
       <c r="D22">
-        <v>0.1189148769718429</v>
+        <v>0.04317174920998923</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5045239518019358</v>
+        <v>0.5485534533365097</v>
       </c>
       <c r="G22">
-        <v>0.3454483760574334</v>
+        <v>0.3795974037477663</v>
       </c>
       <c r="H22">
-        <v>0.2467976007445003</v>
+        <v>0.5283313198058437</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9745504667655496</v>
+        <v>0.3189820921249691</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.588762240803121</v>
+        <v>1.470084181145126</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.200163968090692</v>
+        <v>1.757394919581174</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.014770766180305</v>
+        <v>0.3225092639202103</v>
       </c>
       <c r="C23">
-        <v>0.08779501274820234</v>
+        <v>0.07753128345200366</v>
       </c>
       <c r="D23">
-        <v>0.1150906998691994</v>
+        <v>0.0418667973918474</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4914558962497964</v>
+        <v>0.5469980017047362</v>
       </c>
       <c r="G23">
-        <v>0.3370016354932375</v>
+        <v>0.3789612860947926</v>
       </c>
       <c r="H23">
-        <v>0.2454271978380547</v>
+        <v>0.529306249105602</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9440258607797603</v>
+        <v>0.3083177822486789</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.314807711545967</v>
+        <v>1.420080726563626</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.179236206753501</v>
+        <v>1.758000145646719</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8776815693158255</v>
+        <v>0.2777280048802311</v>
       </c>
       <c r="C24">
-        <v>0.08648512329661173</v>
+        <v>0.07621628488814736</v>
       </c>
       <c r="D24">
-        <v>0.100533719561362</v>
+        <v>0.03689948630303519</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4445712866129838</v>
+        <v>0.5417231890789083</v>
       </c>
       <c r="G24">
-        <v>0.307458657267432</v>
+        <v>0.3770539174395111</v>
       </c>
       <c r="H24">
-        <v>0.2414344317164989</v>
+        <v>0.5334177996629208</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8275038708802072</v>
+        <v>0.267749540842928</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.345846502588458</v>
+        <v>1.232112210251969</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.107664571516693</v>
+        <v>1.762219979429091</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7289676081554433</v>
+        <v>0.2291895820961827</v>
       </c>
       <c r="C25">
-        <v>0.08490571850962425</v>
+        <v>0.07482076384703618</v>
       </c>
       <c r="D25">
-        <v>0.08470370223190571</v>
+        <v>0.03149009495993482</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.398725093534182</v>
+        <v>0.5373466630757164</v>
       </c>
       <c r="G25">
-        <v>0.2799883395998251</v>
+        <v>0.3760622144887122</v>
       </c>
       <c r="H25">
-        <v>0.2393946795817783</v>
+        <v>0.5387478942659598</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.700297320140649</v>
+        <v>0.2236300104039941</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.40239106877857</v>
+        <v>1.032110385368568</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.044509834962383</v>
+        <v>1.770875414199423</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_87/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_87/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1932629775376711</v>
+        <v>0.6188392554234952</v>
       </c>
       <c r="C2">
-        <v>0.07381479721892248</v>
+        <v>0.08368008854321118</v>
       </c>
       <c r="D2">
-        <v>0.02746420182479881</v>
+        <v>0.07295270224670958</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5352490448350977</v>
+        <v>0.3683180700609299</v>
       </c>
       <c r="G2">
-        <v>0.3762415226960698</v>
+        <v>0.2628491189173943</v>
       </c>
       <c r="H2">
-        <v>0.5434424720458182</v>
+        <v>0.2395916098710771</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1908499007080593</v>
+        <v>0.605594202970309</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8869244610980616</v>
+        <v>2.763211826575201</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.780762920721443</v>
+        <v>1.008089212714665</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1688055617385089</v>
+        <v>0.5438249185284008</v>
       </c>
       <c r="C3">
-        <v>0.07314745209910711</v>
+        <v>0.0828388950674821</v>
       </c>
       <c r="D3">
-        <v>0.02470966275431152</v>
+        <v>0.06493289923869838</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5345269578717549</v>
+        <v>0.3494986210528523</v>
       </c>
       <c r="G3">
-        <v>0.3769269306848031</v>
+        <v>0.2528695683180828</v>
       </c>
       <c r="H3">
-        <v>0.5471045313039937</v>
+        <v>0.2406764730936644</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1684584451220701</v>
+        <v>0.5408456372908574</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7896836777914586</v>
+        <v>2.353288141568243</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.789648995828045</v>
+        <v>0.9888518504112369</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1537374814116248</v>
+        <v>0.4975790376341251</v>
       </c>
       <c r="C4">
-        <v>0.07274514631495776</v>
+        <v>0.08232453588165356</v>
       </c>
       <c r="D4">
-        <v>0.0230057236765191</v>
+        <v>0.05998165434693448</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5344280057941688</v>
+        <v>0.338737278755481</v>
       </c>
       <c r="G4">
-        <v>0.3776248289870949</v>
+        <v>0.2474650023836915</v>
       </c>
       <c r="H4">
-        <v>0.5495901237623286</v>
+        <v>0.2417798053111468</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1546261826340327</v>
+        <v>0.5008291617856599</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7305018596744048</v>
+        <v>2.110161054869863</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.796180741809621</v>
+        <v>0.9794803881283656</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1475848219285183</v>
+        <v>0.4786865507086588</v>
       </c>
       <c r="C5">
-        <v>0.07258313150816775</v>
+        <v>0.08211640894599981</v>
       </c>
       <c r="D5">
-        <v>0.02230822767126028</v>
+        <v>0.05795725745985436</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5344742284773076</v>
+        <v>0.3345396060951131</v>
       </c>
       <c r="G5">
-        <v>0.3779787536163468</v>
+        <v>0.2454329594142308</v>
       </c>
       <c r="H5">
-        <v>0.5506626492129953</v>
+        <v>0.2423349428443373</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1489689088776345</v>
+        <v>0.484459136950079</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7065106605033549</v>
+        <v>2.012874294917694</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.799112682926491</v>
+        <v>0.9762415667996578</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1465624515200972</v>
+        <v>0.4755466313059884</v>
       </c>
       <c r="C6">
-        <v>0.07255634716018022</v>
+        <v>0.08208196414225455</v>
       </c>
       <c r="D6">
-        <v>0.0221922216483037</v>
+        <v>0.05762070344340486</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5344871292000022</v>
+        <v>0.3338535860201119</v>
       </c>
       <c r="G6">
-        <v>0.3780417175342166</v>
+        <v>0.245105511465475</v>
       </c>
       <c r="H6">
-        <v>0.5508443429015699</v>
+        <v>0.2424333722563148</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1480283004237464</v>
+        <v>0.4817371683969469</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7025343692743178</v>
+        <v>1.996818273093709</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.799615840806155</v>
+        <v>0.975737865815006</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1536545535272893</v>
+        <v>0.4973244370124803</v>
       </c>
       <c r="C7">
-        <v>0.07274295344776505</v>
+        <v>0.08232172186761488</v>
       </c>
       <c r="D7">
-        <v>0.02299632959454811</v>
+        <v>0.05995437977035323</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5344282788265602</v>
+        <v>0.338679922841969</v>
       </c>
       <c r="G7">
-        <v>0.3776293208234378</v>
+        <v>0.2474369222403539</v>
       </c>
       <c r="H7">
-        <v>0.5496043467769383</v>
+        <v>0.241786870477128</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1545499689795378</v>
+        <v>0.5006086419116684</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7301778041441338</v>
+        <v>2.10884221126345</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.796219189340974</v>
+        <v>0.979434401914915</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1848410016210096</v>
+        <v>0.5930131718918688</v>
       </c>
       <c r="C8">
-        <v>0.07358318396342867</v>
+        <v>0.08339020917205175</v>
       </c>
       <c r="D8">
-        <v>0.02651709060397422</v>
+        <v>0.07019314572195867</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5349285492121538</v>
+        <v>0.3616568765636572</v>
       </c>
       <c r="G8">
-        <v>0.3764202619071995</v>
+        <v>0.2592509779953218</v>
       </c>
       <c r="H8">
-        <v>0.5446559526779993</v>
+        <v>0.2398721718350103</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.183147053465845</v>
+        <v>0.5833246551054856</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8532833283828438</v>
+        <v>2.619855055270349</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.783603413812429</v>
+        <v>1.0009287204592</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2455700092432949</v>
+        <v>0.7791638263224172</v>
       </c>
       <c r="C9">
-        <v>0.07528762589881666</v>
+        <v>0.08545196878402095</v>
       </c>
       <c r="D9">
-        <v>0.03331901840297746</v>
+        <v>0.09005157407263198</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5386458815275077</v>
+        <v>0.4136044807547563</v>
       </c>
       <c r="G9">
-        <v>0.3762545264498272</v>
+        <v>0.2887200432213106</v>
       </c>
       <c r="H9">
-        <v>0.5368328395680422</v>
+        <v>0.2398023497188859</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2385386174086079</v>
+        <v>0.7433226594809526</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.099139928700623</v>
+        <v>3.709793001639568</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.767412900596142</v>
+        <v>1.06409564611036</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2899018116995364</v>
+        <v>0.9149642900935362</v>
       </c>
       <c r="C10">
-        <v>0.07657148864463892</v>
+        <v>0.08685850182022392</v>
       </c>
       <c r="D10">
-        <v>0.03825182879519673</v>
+        <v>0.1044959275533586</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5430513374943615</v>
+        <v>0.4568870793194577</v>
       </c>
       <c r="G10">
-        <v>0.3774874250627533</v>
+        <v>0.3150943645613467</v>
       </c>
       <c r="H10">
-        <v>0.5322313919583905</v>
+        <v>0.2423266951265504</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2787897515464692</v>
+        <v>0.8592669982315613</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.282900772118865</v>
+        <v>4.598957413974773</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.760750976294503</v>
+        <v>1.125879459245652</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3100023649983257</v>
+        <v>0.9765006776200948</v>
       </c>
       <c r="C11">
-        <v>0.07716179413920088</v>
+        <v>0.08744797515463887</v>
       </c>
       <c r="D11">
-        <v>0.0404814259019588</v>
+        <v>0.1110302809782837</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.545420482901001</v>
+        <v>0.4779250164842068</v>
       </c>
       <c r="G11">
-        <v>0.3783447262719193</v>
+        <v>0.3283481152769383</v>
       </c>
       <c r="H11">
-        <v>0.5303869223181295</v>
+        <v>0.2441173701120078</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2969991016747429</v>
+        <v>0.9115739743376707</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.367271955679385</v>
+        <v>5.033330556066346</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.75886146233529</v>
+        <v>1.15798717638566</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3176038839142734</v>
+        <v>0.9997627589751232</v>
       </c>
       <c r="C12">
-        <v>0.07738617504170975</v>
+        <v>0.08766087090694441</v>
       </c>
       <c r="D12">
-        <v>0.04132360312215155</v>
+        <v>0.1134986709789843</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5463702063068325</v>
+        <v>0.4861085785581949</v>
       </c>
       <c r="G12">
-        <v>0.3787121652640764</v>
+        <v>0.3335702908911742</v>
       </c>
       <c r="H12">
-        <v>0.5297242373030286</v>
+        <v>0.2448957581944597</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3038794476042312</v>
+        <v>0.9313069083598577</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.399340452926154</v>
+        <v>5.203330499922458</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.758310397072904</v>
+        <v>1.170785938958545</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3159672206930111</v>
+        <v>0.994754776199386</v>
       </c>
       <c r="C13">
-        <v>0.07733781391306138</v>
+        <v>0.08761553820556855</v>
       </c>
       <c r="D13">
-        <v>0.04114232051702515</v>
+        <v>0.1129673432017029</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5461633265973447</v>
+        <v>0.4843360462647723</v>
       </c>
       <c r="G13">
-        <v>0.3786311245759606</v>
+        <v>0.3324361594418832</v>
       </c>
       <c r="H13">
-        <v>0.5298653671562903</v>
+        <v>0.2447235199705915</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3023983249259743</v>
+        <v>0.9270606179873369</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.392428521435377</v>
+        <v>5.166449575432637</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.758421758776905</v>
+        <v>1.167999877224986</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3106279528964535</v>
+        <v>0.9784153170601542</v>
       </c>
       <c r="C14">
-        <v>0.0771802374779611</v>
+        <v>0.08746571805566106</v>
       </c>
       <c r="D14">
-        <v>0.04055075520223284</v>
+        <v>0.1112334833883182</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.54549756298087</v>
+        <v>0.4785937898952213</v>
       </c>
       <c r="G14">
-        <v>0.3783740970033449</v>
+        <v>0.328773529618573</v>
       </c>
       <c r="H14">
-        <v>0.5303316857942946</v>
+        <v>0.2441793492656927</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2975654587448844</v>
+        <v>0.913198991808116</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.369907824402958</v>
+        <v>5.04719784413534</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.75881282783817</v>
+        <v>1.159026898512195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3073561608088085</v>
+        <v>0.9684014400648948</v>
       </c>
       <c r="C15">
-        <v>0.07708382573541428</v>
+        <v>0.08737249743588649</v>
       </c>
       <c r="D15">
-        <v>0.0401881262074113</v>
+        <v>0.1101706303486907</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5450966133524346</v>
+        <v>0.4751054916967803</v>
       </c>
       <c r="G15">
-        <v>0.3782222387200989</v>
+        <v>0.3265572714923195</v>
       </c>
       <c r="H15">
-        <v>0.530621978632567</v>
+        <v>0.2438593439565011</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2946031991588143</v>
+        <v>0.9046982128643037</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.356128955179869</v>
+        <v>4.974912651028248</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.759073796659607</v>
+        <v>1.153616168573791</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2885868093643467</v>
+        <v>0.9109374698204817</v>
       </c>
       <c r="C16">
-        <v>0.07653303211515805</v>
+        <v>0.08681872084305553</v>
       </c>
       <c r="D16">
-        <v>0.0381058254511828</v>
+        <v>0.1040680984464473</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5429038615780115</v>
+        <v>0.4555412252876962</v>
       </c>
       <c r="G16">
-        <v>0.3774373781301961</v>
+        <v>0.3142553285862846</v>
       </c>
       <c r="H16">
-        <v>0.532356938361346</v>
+        <v>0.2422232507840363</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2775976418800212</v>
+        <v>0.8558389080495914</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.277403169529492</v>
+        <v>4.571267682363811</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.76089745282377</v>
+        <v>1.123866988892104</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2770550329609307</v>
+        <v>0.8756203319835834</v>
       </c>
       <c r="C17">
-        <v>0.07619670357248509</v>
+        <v>0.08646416289862913</v>
       </c>
       <c r="D17">
-        <v>0.03682468181209941</v>
+        <v>0.1003145894245137</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5416522432027762</v>
+        <v>0.4438998798745359</v>
       </c>
       <c r="G17">
-        <v>0.377031939158698</v>
+        <v>0.3070451816853819</v>
       </c>
       <c r="H17">
-        <v>0.5334849949709195</v>
+        <v>0.2413894117150477</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2671389615720585</v>
+        <v>0.8257462511542997</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.229311615470891</v>
+        <v>4.332061742588792</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.76230871716578</v>
+        <v>1.106684921358919</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2704160645556897</v>
+        <v>0.855284747122397</v>
       </c>
       <c r="C18">
-        <v>0.07600384980369768</v>
+        <v>0.08625571643079155</v>
       </c>
       <c r="D18">
-        <v>0.03608645339040351</v>
+        <v>0.09815230080739923</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5409667037533197</v>
+        <v>0.4373294486692743</v>
       </c>
       <c r="G18">
-        <v>0.376826634512021</v>
+        <v>0.303014767114469</v>
       </c>
       <c r="H18">
-        <v>0.5341572366638871</v>
+        <v>0.2409697409173788</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2611139258652031</v>
+        <v>0.8083975427651211</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.201723363944211</v>
+        <v>4.197200764007334</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.763227815665545</v>
+        <v>1.097174544025819</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2681671782552826</v>
+        <v>0.8483958097609445</v>
       </c>
       <c r="C19">
-        <v>0.07593865649545251</v>
+        <v>0.08618444513781043</v>
       </c>
       <c r="D19">
-        <v>0.03583627207681417</v>
+        <v>0.09741962741681931</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5407404904771127</v>
+        <v>0.4351256984255798</v>
       </c>
       <c r="G19">
-        <v>0.3767619074267898</v>
+        <v>0.3016695433983045</v>
       </c>
       <c r="H19">
-        <v>0.5343888672596719</v>
+        <v>0.2408377153386638</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2590723425977899</v>
+        <v>0.8025169601770301</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.192394733557251</v>
+        <v>4.151975306894315</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.763557437277044</v>
+        <v>1.094016617709769</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.278283255848379</v>
+        <v>0.8793822233313335</v>
       </c>
       <c r="C20">
-        <v>0.07623244530491746</v>
+        <v>0.08650239299500129</v>
       </c>
       <c r="D20">
-        <v>0.03696120171883166</v>
+        <v>0.1007145103111284</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5417819235716479</v>
+        <v>0.4451259906393261</v>
       </c>
       <c r="G20">
-        <v>0.3770722107779676</v>
+        <v>0.3078004864522228</v>
       </c>
       <c r="H20">
-        <v>0.533362488187386</v>
+        <v>0.2414719184002934</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.2682532914001854</v>
+        <v>0.8289539002229276</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.234423464027714</v>
+        <v>4.357235978838546</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.762147369899708</v>
+        <v>1.108475012771322</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.312196504852551</v>
+        <v>0.9832157704301494</v>
       </c>
       <c r="C21">
-        <v>0.07722649901248246</v>
+        <v>0.08751003318838002</v>
       </c>
       <c r="D21">
-        <v>0.04072457034529009</v>
+        <v>0.1117429315346357</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5456916862537824</v>
+        <v>0.4802743398104852</v>
       </c>
       <c r="G21">
-        <v>0.3784484293704793</v>
+        <v>0.3298436165908925</v>
       </c>
       <c r="H21">
-        <v>0.5301937457212489</v>
+        <v>0.2443363948950861</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2989854043761397</v>
+        <v>0.9172726262247863</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.376519412466862</v>
+        <v>5.082063904391717</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.758693495184133</v>
+        <v>1.161644535605689</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3343014816575476</v>
+        <v>1.050836371399981</v>
       </c>
       <c r="C22">
-        <v>0.07788106998851418</v>
+        <v>0.08810623876050272</v>
       </c>
       <c r="D22">
-        <v>0.04317174920998923</v>
+        <v>0.1189148769718429</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5485534533365097</v>
+        <v>0.5045239518019216</v>
       </c>
       <c r="G22">
-        <v>0.3795974037477663</v>
+        <v>0.3454483760574902</v>
       </c>
       <c r="H22">
-        <v>0.5283313198058437</v>
+        <v>0.2467976007445003</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3189820921249691</v>
+        <v>0.9745504667657201</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.470084181145126</v>
+        <v>5.588762240803106</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.757394919581174</v>
+        <v>1.20016396809072</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3225092639202103</v>
+        <v>1.014770766180533</v>
       </c>
       <c r="C23">
-        <v>0.07753128345200366</v>
+        <v>0.08779501274820234</v>
       </c>
       <c r="D23">
-        <v>0.0418667973918474</v>
+        <v>0.1150906998690715</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5469980017047362</v>
+        <v>0.4914558962497821</v>
       </c>
       <c r="G23">
-        <v>0.3789612860947926</v>
+        <v>0.3370016354932943</v>
       </c>
       <c r="H23">
-        <v>0.529306249105602</v>
+        <v>0.2454271978380547</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3083177822486789</v>
+        <v>0.9440258607798171</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.420080726563626</v>
+        <v>5.314807711546038</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.758000145646719</v>
+        <v>1.179236206753529</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2777280048802311</v>
+        <v>0.8776815693158255</v>
       </c>
       <c r="C24">
-        <v>0.07621628488814736</v>
+        <v>0.08648512329659752</v>
       </c>
       <c r="D24">
-        <v>0.03689948630303519</v>
+        <v>0.1005337195615112</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5417231890789083</v>
+        <v>0.4445712866129838</v>
       </c>
       <c r="G24">
-        <v>0.3770539174395111</v>
+        <v>0.3074586572673894</v>
       </c>
       <c r="H24">
-        <v>0.5334177996629208</v>
+        <v>0.2414344317163994</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.267749540842928</v>
+        <v>0.8275038708803066</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.232112210251969</v>
+        <v>4.345846502588444</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.762219979429091</v>
+        <v>1.107664571516835</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2291895820961827</v>
+        <v>0.7289676081553011</v>
       </c>
       <c r="C25">
-        <v>0.07482076384703618</v>
+        <v>0.08490571850931872</v>
       </c>
       <c r="D25">
-        <v>0.03149009495993482</v>
+        <v>0.08470370223169255</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5373466630757164</v>
+        <v>0.398725093534182</v>
       </c>
       <c r="G25">
-        <v>0.3760622144887122</v>
+        <v>0.2799883395998393</v>
       </c>
       <c r="H25">
-        <v>0.5387478942659598</v>
+        <v>0.2393946795817641</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2236300104039941</v>
+        <v>0.7002973201406633</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.032110385368568</v>
+        <v>3.402391068778584</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.770875414199423</v>
+        <v>1.044509834962369</v>
       </c>
     </row>
   </sheetData>
